--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_0_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_2_five_bus_radial_grid_dyn_pf_sc_results_0_bus.xlsx
@@ -10232,31 +10232,31 @@
         <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186049</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104232</v>
+        <v>1.324394474104234</v>
       </c>
       <c r="M2">
-        <v>13.24394453563989</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-8.694577365250734E-11</v>
+        <v>-8.692679889212781E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10306,16 +10306,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279646671965</v>
+        <v>0.952627964667196</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965613</v>
+        <v>0.9526279648965611</v>
       </c>
       <c r="Q3">
-        <v>1.457296900362941E-10</v>
+        <v>1.457783072833103E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10365,16 +10365,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279646404252</v>
+        <v>0.952627964640425</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233326</v>
+        <v>0.9526279649233325</v>
       </c>
       <c r="Q4">
-        <v>1.564846788178467E-09</v>
+        <v>1.564892527992756E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315016</v>
+        <v>0.9526279646315012</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322563</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q5">
-        <v>2.0378811364535E-09</v>
+        <v>2.037922988846226E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10483,16 +10483,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279646315017</v>
+        <v>0.9526279646315012</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322563</v>
+        <v>0.9526279649322561</v>
       </c>
       <c r="Q6">
-        <v>2.037882892602347E-09</v>
+        <v>2.037924768200038E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
